--- a/Documentation/Sprints/Sprint1/Sprint 1 Burnup Chart.xlsx
+++ b/Documentation/Sprints/Sprint1/Sprint 1 Burnup Chart.xlsx
@@ -124,11 +124,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1554650179"/>
-        <c:axId val="1666516896"/>
+        <c:axId val="1736250406"/>
+        <c:axId val="917365607"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1554650179"/>
+        <c:axId val="1736250406"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -143,10 +143,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1666516896"/>
+        <c:crossAx val="917365607"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1666516896"/>
+        <c:axId val="917365607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -177,7 +177,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1554650179"/>
+        <c:crossAx val="1736250406"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
